--- a/Cash.xlsx
+++ b/Cash.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Demo\BankingTransaction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHOH\Documents\GitHub\SimpleDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613EBA9F-5B95-4CE0-B85C-7764D6C6F8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDC34CA-F23D-4980-B5E4-98DE4B533BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="972" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,7 +919,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -930,19 +930,19 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="F14" sqref="E2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="19.09765625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -972,11 +972,9 @@
       <c r="D2" s="1">
         <v>160.08000000000001</v>
       </c>
-      <c r="E2" s="2">
-        <v>267219</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -989,11 +987,9 @@
       <c r="D3" s="1">
         <v>92.77</v>
       </c>
-      <c r="E3" s="2">
-        <v>973712</v>
-      </c>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1006,11 +1002,9 @@
       <c r="D4" s="1">
         <v>46.94</v>
       </c>
-      <c r="E4" s="2">
-        <v>924182</v>
-      </c>
+      <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1023,11 +1017,9 @@
       <c r="D5" s="1">
         <v>246.57</v>
       </c>
-      <c r="E5" s="2">
-        <v>848323</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1040,11 +1032,9 @@
       <c r="D6" s="1">
         <v>34.270000000000003</v>
       </c>
-      <c r="E6" s="2">
-        <v>945223</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1057,11 +1047,9 @@
       <c r="D7" s="1">
         <v>15.37</v>
       </c>
-      <c r="E7" s="2">
-        <v>346149</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1074,11 +1062,9 @@
       <c r="D8" s="1">
         <v>131.09</v>
       </c>
-      <c r="E8" s="2">
-        <v>733454</v>
-      </c>
+      <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1091,11 +1077,9 @@
       <c r="D9" s="1">
         <v>116.26</v>
       </c>
-      <c r="E9" s="2">
-        <v>743975</v>
-      </c>
+      <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1108,11 +1092,9 @@
       <c r="D10" s="1">
         <v>220.76</v>
       </c>
-      <c r="E10" s="2">
-        <v>215647</v>
-      </c>
+      <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1125,9 +1107,7 @@
       <c r="D11" s="1">
         <v>182.92</v>
       </c>
-      <c r="E11" s="2">
-        <v>155422</v>
-      </c>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
